--- a/ExcelTemplate/Application.xlsx
+++ b/ExcelTemplate/Application.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FAC58F-EBB2-4B8C-B24C-32035CA55B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD9FC8-1F0C-4441-B793-90DE203AF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>mspaint</t>
+  </si>
+  <si>
+    <t>UseMonitorDPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -430,9 +438,10 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -451,8 +460,11 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -488,8 +503,11 @@
       <c r="F3">
         <v>-35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -508,8 +526,11 @@
       <c r="F4">
         <v>-35</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -528,8 +549,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -548,8 +572,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -563,6 +590,9 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -574,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA1BCCA-26F2-4A4D-A6E0-B416F433792F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,6 +713,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
